--- a/estacion_metereologica.xlsx
+++ b/estacion_metereologica.xlsx
@@ -493,8 +493,12 @@
       <c r="A2" s="2" t="n">
         <v>45862.45833333334</v>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C2" t="n">
+        <v>30</v>
+      </c>
       <c r="D2" t="n">
         <v>16.44</v>
       </c>
@@ -521,8 +525,12 @@
       <c r="A3" s="2" t="n">
         <v>45862.5</v>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C3" t="n">
+        <v>30</v>
+      </c>
       <c r="D3" t="n">
         <v>17.65</v>
       </c>
@@ -549,8 +557,12 @@
       <c r="A4" s="2" t="n">
         <v>45862.54166666666</v>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C4" t="n">
+        <v>30</v>
+      </c>
       <c r="D4" t="n">
         <v>18.51</v>
       </c>
@@ -577,8 +589,12 @@
       <c r="A5" s="2" t="n">
         <v>45862.58333333334</v>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C5" t="n">
+        <v>30</v>
+      </c>
       <c r="D5" t="n">
         <v>19.33</v>
       </c>
@@ -661,7 +677,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>16:38:57</t>
+          <t>17:00:16</t>
         </is>
       </c>
     </row>

--- a/estacion_metereologica.xlsx
+++ b/estacion_metereologica.xlsx
@@ -647,7 +647,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45862.58333333334</v>
+        <v>45862.70833333334</v>
       </c>
       <c r="B8" t="n">
         <v>2025</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45862.72465423611</v>
+        <v>45862.75021494213</v>
       </c>
       <c r="B9" t="n">
         <v>2025</v>
@@ -713,7 +713,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>17:23:30</t>
+          <t>18:00:18</t>
         </is>
       </c>
     </row>

--- a/estacion_metereologica.xlsx
+++ b/estacion_metereologica.xlsx
@@ -7805,7 +7805,7 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>45871.64404886574</v>
+        <v>45871.66688459491</v>
       </c>
       <c r="B221" t="n">
         <v>2025</v>
@@ -7814,16 +7814,16 @@
         <v>6</v>
       </c>
       <c r="D221" t="n">
-        <v>18.67</v>
+        <v>18.56</v>
       </c>
       <c r="E221" t="n">
-        <v>77.62</v>
+        <v>78.36</v>
       </c>
       <c r="F221" t="n">
-        <v>363.87</v>
+        <v>293.55</v>
       </c>
       <c r="G221" t="n">
-        <v>12.13</v>
+        <v>12.3</v>
       </c>
       <c r="H221" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>15:27:25</t>
+          <t>16:00:18</t>
         </is>
       </c>
     </row>

--- a/estacion_metereologica.xlsx
+++ b/estacion_metereologica.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\mi-app-humedad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E802EDCF-8A78-4CD6-BCD0-AF62E4D63CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05AF3B9B-C2C6-47FA-A651-8D19FC166070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="390" windowWidth="28800" windowHeight="10125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -360,7 +360,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -416,7 +416,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -721,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J3032"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
-      <selection activeCell="C277" sqref="C277:C285"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="E149" sqref="E149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5175,7 +5175,7 @@
         <v>74.599999999999994</v>
       </c>
       <c r="E148">
-        <v>9.44</v>
+        <v>79.44</v>
       </c>
       <c r="F148">
         <v>613.48</v>

--- a/estacion_metereologica.xlsx
+++ b/estacion_metereologica.xlsx
@@ -12137,7 +12137,7 @@
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>45877.33865347222</v>
+        <v>45877.37517245371</v>
       </c>
       <c r="B351" t="n">
         <v>2025</v>
@@ -12146,20 +12146,20 @@
         <v>32</v>
       </c>
       <c r="D351" t="n">
-        <v>14.17</v>
+        <v>14.83</v>
       </c>
       <c r="E351" t="n">
-        <v>93.03</v>
+        <v>92.65000000000001</v>
       </c>
       <c r="F351" t="n">
-        <v>84.38</v>
+        <v>163.48</v>
       </c>
       <c r="G351" t="n">
-        <v>3.84</v>
+        <v>5.36</v>
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>NW</t>
+          <t>SE</t>
         </is>
       </c>
       <c r="I351" t="n">
@@ -12167,7 +12167,7 @@
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>08:07:39</t>
+          <t>09:00:14</t>
         </is>
       </c>
     </row>
